--- a/calibration/Tello Turn Rate.xlsx
+++ b/calibration/Tello Turn Rate.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuart Golodetz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smglib\smg-rotory\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8197A9-CAC8-4381-ACB0-C785BE001276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F952C31B-799C-4521-A3D6-115CF5BD86D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tello Turn Rate (deg|s)" sheetId="1" r:id="rId1"/>
     <sheet name="Tello Turn Rate (rad|s)" sheetId="5" r:id="rId2"/>
-    <sheet name="Chart1" sheetId="2" r:id="rId3"/>
-    <sheet name="Chart2" sheetId="3" r:id="rId4"/>
-    <sheet name="Chart3" sheetId="4" r:id="rId5"/>
-    <sheet name="Chart4" sheetId="6" r:id="rId6"/>
-    <sheet name="Chart5" sheetId="7" r:id="rId7"/>
+    <sheet name="Meas. (deg per s)" sheetId="3" r:id="rId3"/>
+    <sheet name="Joined (deg per s)" sheetId="4" r:id="rId4"/>
+    <sheet name="Meas. (rad per s)" sheetId="6" r:id="rId5"/>
+    <sheet name="Corrected (rad per s)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,6 +33,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Full Turn (s)</t>
+  </si>
+  <si>
+    <t>Measured (deg/s)</t>
+  </si>
+  <si>
+    <t>Predicted (deg/s)</t>
+  </si>
+  <si>
+    <t>Joined (deg/s)</t>
+  </si>
+  <si>
+    <t>Corrected (deg/s)</t>
+  </si>
+  <si>
+    <t>Degrees/s</t>
+  </si>
+  <si>
+    <t>Measured (rad/s)</t>
+  </si>
+  <si>
+    <t>Predicted (rad/s)</t>
+  </si>
+  <si>
+    <t>Corrected (rad/s)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,8 +549,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -589,395 +629,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$D$1:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$E$1:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3.4575730275512169</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3108265953631255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.1341683971073824</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.000808289142068</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.893109571833985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.302087963161163</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.68807195428769</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.189937982152433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7C5-465E-903F-4870BED7C15E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="824009391"/>
-        <c:axId val="824006063"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="824009391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="824006063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="824006063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="824009391"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1058,7 +710,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$D$1:$D$19</c:f>
+              <c:f>'Tello Turn Rate (deg|s)'!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1124,7 +776,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$E$1:$E$19</c:f>
+              <c:f>'Tello Turn Rate (deg|s)'!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1201,22 +853,14 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6755857965772998E-3"/>
+                  <c:y val="0.1448296500994099"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1249,7 +893,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$D$1:$D$19</c:f>
+              <c:f>'Tello Turn Rate (deg|s)'!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1315,7 +959,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$F$1:$F$19</c:f>
+              <c:f>'Tello Turn Rate (deg|s)'!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1398,6 +1042,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1461,6 +1160,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Measured (deg/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1510,37 +1264,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1573,7 +1296,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1587,37 +1310,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1652,7 +1345,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$K$1:$K$19</c:f>
+              <c:f>'Tello Turn Rate (deg|s)'!$K$2:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1718,7 +1411,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$L$1:$L$19</c:f>
+              <c:f>'Tello Turn Rate (deg|s)'!$L$2:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1785,7 +1478,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$K$1:$K$19</c:f>
+              <c:f>'Tello Turn Rate (deg|s)'!$K$2:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1851,7 +1544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (deg|s)'!$M$1:$M$19</c:f>
+              <c:f>'Tello Turn Rate (deg|s)'!$M$2:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1916,6 +1609,7 @@
         <c:axId val="1377799919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1933,6 +1627,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1978,6 +1727,7 @@
         <c:axId val="1377801583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1995,6 +1745,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Joined (deg/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2044,37 +1849,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2107,7 +1881,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2121,37 +1895,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2232,7 +1976,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (rad|s)'!$D$1:$D$19</c:f>
+              <c:f>'Tello Turn Rate (rad|s)'!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2298,7 +2042,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (rad|s)'!$E$1:$E$19</c:f>
+              <c:f>'Tello Turn Rate (rad|s)'!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2375,22 +2119,14 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0850964238679529E-4"/>
+                  <c:y val="0.14791493886569235"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2423,7 +2159,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (rad|s)'!$D$1:$D$19</c:f>
+              <c:f>'Tello Turn Rate (rad|s)'!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2489,7 +2225,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (rad|s)'!$F$1:$F$19</c:f>
+              <c:f>'Tello Turn Rate (rad|s)'!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2572,6 +2308,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2635,6 +2426,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Measured (rad/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2684,37 +2530,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2747,7 +2562,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2761,37 +2576,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2826,7 +2611,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (rad|s)'!$N$1:$N$19</c:f>
+              <c:f>'Tello Turn Rate (rad|s)'!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2892,7 +2677,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (rad|s)'!$O$1:$O$19</c:f>
+              <c:f>'Tello Turn Rate (rad|s)'!$O$2:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2959,7 +2744,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (rad|s)'!$N$1:$N$19</c:f>
+              <c:f>'Tello Turn Rate (rad|s)'!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3025,7 +2810,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tello Turn Rate (rad|s)'!$P$1:$P$19</c:f>
+              <c:f>'Tello Turn Rate (rad|s)'!$P$2:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3090,6 +2875,7 @@
         <c:axId val="1881877728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3107,6 +2893,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3152,6 +2993,7 @@
         <c:axId val="1881884800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3169,6 +3011,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Corrected (rad/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3218,37 +3115,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3441,46 +3307,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5545,524 +5371,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2D135083-91DF-4205-A0F8-FA33AEE24A48}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
@@ -6073,7 +5383,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2D135083-91DF-4205-A0F8-FA33AEE24A48}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{04020EE0-EE9E-42F6-AB65-25400725A6B4}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
@@ -6084,7 +5394,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{04020EE0-EE9E-42F6-AB65-25400725A6B4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{46F3A9B4-6BA8-4C1A-8E59-4E6790D7A4C9}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
@@ -6095,17 +5405,6 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{46F3A9B4-6BA8-4C1A-8E59-4E6790D7A4C9}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A838A186-9643-4D35-BB7D-6C4F4DD95E41}">
   <sheetPr/>
   <sheetViews>
@@ -6126,7 +5425,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1320FF79-01AD-4A9F-8943-CAE60BE8E494}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9330034-68C5-45FB-98E5-A86C23F234BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +5458,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9330034-68C5-45FB-98E5-A86C23F234BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C76177-6B10-493D-AA18-38803E676F2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6192,7 +5491,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C76177-6B10-493D-AA18-38803E676F2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC37A31-66D0-4CFA-BB59-A026BC1237D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6216,39 +5515,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC37A31-66D0-4CFA-BB59-A026BC1237D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -6578,795 +5844,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="21" max="21" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.21875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.1</v>
-      </c>
-      <c r="B1">
-        <v>104.119275899999</v>
-      </c>
-      <c r="D1">
-        <v>0.1</v>
-      </c>
-      <c r="E1">
-        <f>360/$B1</f>
-        <v>3.4575730275512169</v>
-      </c>
-      <c r="H1">
-        <f>83.813*$D1*$D1 + 29.858*$D1</f>
-        <v>3.8239300000000003</v>
-      </c>
-      <c r="K1">
-        <v>0.1</v>
-      </c>
-      <c r="L1">
-        <f t="shared" ref="L1:L8" si="0">$H1+($E$8-$H$8)</f>
-        <v>3.6056354821524326</v>
-      </c>
-      <c r="R1">
-        <v>0.1</v>
-      </c>
-      <c r="S1">
-        <f>83.813*$D1*$D1+29.858*$D1-0.21829</f>
-        <v>3.6056400000000002</v>
-      </c>
-      <c r="V1">
-        <v>3.6056400000000002</v>
-      </c>
-      <c r="W1">
-        <f>(-29.858+SQRT(964.68232308+335.252*$V1))/167.626</f>
-        <v>9.9999999999999964E-2</v>
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>104.119275899999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <f>360/$B2</f>
+        <v>3.4575730275512169</v>
+      </c>
+      <c r="H2" s="2">
+        <f>83.813*$D2*$D2 + 29.858*$D2</f>
+        <v>3.8239300000000003</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L9" si="0">$H2+($E$9-$H$9)</f>
+        <v>3.6056354821524326</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="2">
+        <f>83.813*$D2*$D2+29.858*$D2-0.21829</f>
+        <v>3.6056400000000002</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3.6056400000000002</v>
+      </c>
+      <c r="W2" s="2">
+        <f>(-29.858+SQRT(964.68232308+335.252*$V2))/167.626</f>
+        <v>9.9999999999999964E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>0.15</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="2">
         <v>57.044825199999899</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="2">
         <v>0.15</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:F19" si="1">360/$B2</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:F20" si="1">360/$B3</f>
         <v>6.3108265953631255</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H8" si="2">83.813*$D2*$D2 + 29.858*$D2</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="2">83.813*$D3*$D3 + 29.858*$D3</f>
         <v>6.3644924999999999</v>
       </c>
-      <c r="K2">
+      <c r="K3" s="2">
         <v>0.15</v>
       </c>
-      <c r="L2">
+      <c r="L3" s="2">
         <f t="shared" si="0"/>
         <v>6.1461979821524322</v>
       </c>
-      <c r="R2">
+      <c r="R3" s="2">
         <v>0.15</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S8" si="3">83.813*$D2*$D2+29.858*$D2-0.21829</f>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S9" si="3">83.813*$D3*$D3+29.858*$D3-0.21829</f>
         <v>6.1462025000000002</v>
       </c>
-      <c r="V2">
+      <c r="V3" s="2">
         <v>6.1462025000000002</v>
       </c>
-      <c r="W2">
-        <f t="shared" ref="W2:W7" si="4">(-29.858+SQRT(964.68232308+335.252*$V2))/167.626</f>
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W8" si="4">(-29.858+SQRT(964.68232308+335.252*$V3))/167.626</f>
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>0.2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
         <v>39.4124549</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="2">
         <v>0.2</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>9.1341683971073824</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="2">
         <f t="shared" si="2"/>
         <v>9.3241200000000006</v>
       </c>
-      <c r="K3">
+      <c r="K4" s="2">
         <v>0.2</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>9.1058254821524329</v>
       </c>
-      <c r="R3">
+      <c r="R4" s="2">
         <v>0.2</v>
       </c>
-      <c r="S3">
+      <c r="S4" s="2">
         <f t="shared" si="3"/>
         <v>9.105830000000001</v>
       </c>
-      <c r="V3">
+      <c r="V4" s="2">
         <v>9.105830000000001</v>
       </c>
-      <c r="W3">
+      <c r="W4" s="2">
         <f t="shared" si="4"/>
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>0.25</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
         <v>27.6905859999999</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="2">
         <v>0.25</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>13.000808289142068</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>12.7028125</v>
       </c>
-      <c r="K4">
+      <c r="K5" s="2">
         <v>0.25</v>
       </c>
-      <c r="L4">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>12.484517982152433</v>
       </c>
-      <c r="R4">
+      <c r="R5" s="2">
         <v>0.25</v>
       </c>
-      <c r="S4">
+      <c r="S5" s="2">
         <f t="shared" si="3"/>
         <v>12.484522500000001</v>
       </c>
-      <c r="V4">
+      <c r="V5" s="2">
         <v>12.484522500000001</v>
       </c>
-      <c r="W4">
+      <c r="W5" s="2">
         <f t="shared" si="4"/>
         <v>0.24999999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>0.3</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="2">
         <v>21.310463799999901</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="2">
         <v>0.3</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>16.893109571833985</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>16.50057</v>
       </c>
-      <c r="K5">
+      <c r="K6" s="2">
         <v>0.3</v>
       </c>
-      <c r="L5">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>16.282275482152432</v>
       </c>
-      <c r="R5">
+      <c r="R6" s="2">
         <v>0.3</v>
       </c>
-      <c r="S5">
+      <c r="S6" s="2">
         <f t="shared" si="3"/>
         <v>16.28228</v>
       </c>
-      <c r="V5">
+      <c r="V6" s="2">
         <v>16.28228</v>
       </c>
-      <c r="W5">
+      <c r="W6" s="2">
         <f t="shared" si="4"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>0.35</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>17.7321662999999</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="2">
         <v>0.35</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>20.302087963161163</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>20.717392499999999</v>
       </c>
-      <c r="K6">
+      <c r="K7" s="2">
         <v>0.35</v>
       </c>
-      <c r="L6">
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>20.499097982152431</v>
       </c>
-      <c r="R6">
+      <c r="R7" s="2">
         <v>0.35</v>
       </c>
-      <c r="S6">
+      <c r="S7" s="2">
         <f t="shared" si="3"/>
         <v>20.499102499999999</v>
       </c>
-      <c r="V6">
+      <c r="V7" s="2">
         <v>20.499102499999999</v>
       </c>
-      <c r="W6">
+      <c r="W7" s="2">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>0.4</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="2">
         <v>14.0142864999999</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="2">
         <v>0.4</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>25.68807195428769</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>25.353280000000005</v>
       </c>
-      <c r="K7">
+      <c r="K8" s="2">
         <v>0.4</v>
       </c>
-      <c r="L7">
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>25.134985482152437</v>
       </c>
-      <c r="R7">
+      <c r="R8" s="2">
         <v>0.4</v>
       </c>
-      <c r="S7">
+      <c r="S8" s="2">
         <f t="shared" si="3"/>
         <v>25.134990000000005</v>
       </c>
-      <c r="V7">
+      <c r="V8" s="2">
         <v>25.134990000000005</v>
       </c>
-      <c r="W7">
+      <c r="W8" s="2">
         <f t="shared" si="4"/>
         <v>0.40000000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>0.45</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="2">
         <v>11.9245027999999</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="2">
         <v>0.45</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>30.189937982152433</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>30.189937982152433</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>30.4082325</v>
       </c>
-      <c r="I8">
-        <f>106.13*$D8 - 18.491</f>
+      <c r="I9" s="2">
+        <f>106.13*$D9 - 18.491</f>
         <v>29.267499999999998</v>
       </c>
-      <c r="K8">
+      <c r="K9" s="2">
         <v>0.45</v>
       </c>
-      <c r="L8">
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>30.189937982152433</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M19" si="5">$I8+($F$8-$I$8)</f>
+      <c r="M9" s="2">
+        <f t="shared" ref="M9:M20" si="5">$I9+($F$9-$I$9)</f>
         <v>30.189937982152433</v>
       </c>
-      <c r="O8">
-        <f>$E$8-$H$8</f>
+      <c r="O9" s="2">
+        <f>$E$9-$H$9</f>
         <v>-0.2182945178475677</v>
       </c>
-      <c r="P8">
-        <f>$F8-$I8</f>
+      <c r="P9" s="2">
+        <f>$F9-$I9</f>
         <v>0.92243798215243444</v>
       </c>
-      <c r="R8">
+      <c r="R9" s="2">
         <v>0.45</v>
       </c>
-      <c r="S8">
+      <c r="S9" s="2">
         <f t="shared" si="3"/>
         <v>30.189942500000001</v>
       </c>
-      <c r="T8">
-        <f>106.13*$D8-17.568562</f>
+      <c r="T9" s="2">
+        <f>106.13*$D9-17.568562</f>
         <v>30.189937999999998</v>
       </c>
-      <c r="V8">
+      <c r="V9" s="2">
         <v>30.189937999999998</v>
       </c>
-      <c r="W8">
-        <f>($V8+17.568562)/106.13</f>
+      <c r="W9" s="2">
+        <f>($V9+17.568562)/106.13</f>
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>0.5</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="2">
         <v>10.252030499999901</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="2">
         <v>0.5</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>35.114995024644486</v>
       </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I19" si="6">106.13*$D9 - 18.491</f>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:I20" si="6">106.13*$D10 - 18.491</f>
         <v>34.573999999999998</v>
       </c>
-      <c r="K9">
+      <c r="K10" s="2">
         <v>0.5</v>
       </c>
-      <c r="M9">
+      <c r="M10" s="2">
         <f t="shared" si="5"/>
         <v>35.496437982152429</v>
       </c>
-      <c r="R9">
+      <c r="R10" s="2">
         <v>0.5</v>
       </c>
-      <c r="T9">
-        <f>106.13*$D9-17.568562</f>
+      <c r="T10" s="2">
+        <f>106.13*$D10-17.568562</f>
         <v>35.496437999999998</v>
       </c>
-      <c r="V9">
+      <c r="V10" s="2">
         <v>35.496437999999998</v>
       </c>
-      <c r="W9">
-        <f t="shared" ref="W9:W19" si="7">($V9+17.568562)/106.13</f>
+      <c r="W10" s="2">
+        <f t="shared" ref="W10:W20" si="7">($V10+17.568562)/106.13</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="2">
         <v>8.9132731999999901</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F10">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>40.389202924914315</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="2">
         <f t="shared" si="6"/>
         <v>39.880500000000005</v>
       </c>
-      <c r="K10">
+      <c r="K11" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M10">
+      <c r="M11" s="2">
         <f t="shared" si="5"/>
         <v>40.802937982152443</v>
       </c>
-      <c r="R10">
+      <c r="R11" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T10">
-        <f t="shared" ref="T10:T19" si="8">106.13*$D10-17.568562</f>
+      <c r="T11" s="2">
+        <f t="shared" ref="T11:T20" si="8">106.13*$D11-17.568562</f>
         <v>40.802938000000005</v>
       </c>
-      <c r="V10">
+      <c r="V11" s="2">
         <v>40.802938000000005</v>
       </c>
-      <c r="W10">
+      <c r="W11" s="2">
         <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>0.6</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="2">
         <v>7.7972300000000097</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="2">
         <v>0.6</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>46.170242509198722</v>
       </c>
-      <c r="I11">
+      <c r="I12" s="2">
         <f t="shared" si="6"/>
         <v>45.186999999999998</v>
       </c>
-      <c r="K11">
+      <c r="K12" s="2">
         <v>0.6</v>
       </c>
-      <c r="M11">
+      <c r="M12" s="2">
         <f t="shared" si="5"/>
         <v>46.109437982152429</v>
       </c>
-      <c r="R11">
+      <c r="R12" s="2">
         <v>0.6</v>
       </c>
-      <c r="T11">
+      <c r="T12" s="2">
         <f t="shared" si="8"/>
         <v>46.109437999999997</v>
       </c>
-      <c r="V11">
+      <c r="V12" s="2">
         <v>46.109437999999997</v>
       </c>
-      <c r="W11">
+      <c r="W12" s="2">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>0.65</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="2">
         <v>7.3107315999999898</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="2">
         <v>0.65</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>49.242677709574309</v>
       </c>
-      <c r="I12">
+      <c r="I13" s="2">
         <f t="shared" si="6"/>
         <v>50.493499999999997</v>
       </c>
-      <c r="K12">
+      <c r="K13" s="2">
         <v>0.65</v>
       </c>
-      <c r="M12">
+      <c r="M13" s="2">
         <f t="shared" si="5"/>
         <v>51.415937982152428</v>
       </c>
-      <c r="R12">
+      <c r="R13" s="2">
         <v>0.65</v>
       </c>
-      <c r="T12">
+      <c r="T13" s="2">
         <f t="shared" si="8"/>
         <v>51.415937999999997</v>
       </c>
-      <c r="V12">
+      <c r="V13" s="2">
         <v>51.415937999999997</v>
       </c>
-      <c r="W12">
+      <c r="W13" s="2">
         <f t="shared" si="7"/>
         <v>0.65</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>0.7</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="2">
         <v>6.68663150000003</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="2">
         <v>0.7</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>53.838767696410123</v>
       </c>
-      <c r="I13">
+      <c r="I14" s="2">
         <f t="shared" si="6"/>
         <v>55.8</v>
       </c>
-      <c r="K13">
+      <c r="K14" s="2">
         <v>0.7</v>
       </c>
-      <c r="M13">
+      <c r="M14" s="2">
         <f t="shared" si="5"/>
         <v>56.722437982152428</v>
       </c>
-      <c r="R13">
+      <c r="R14" s="2">
         <v>0.7</v>
       </c>
-      <c r="T13">
+      <c r="T14" s="2">
         <f t="shared" si="8"/>
         <v>56.722437999999997</v>
       </c>
-      <c r="V13">
+      <c r="V14" s="2">
         <v>56.722437999999997</v>
       </c>
-      <c r="W13">
+      <c r="W14" s="2">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>0.75</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="2">
         <v>5.86695589999999</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="2">
         <v>0.75</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>61.360611215775563</v>
       </c>
-      <c r="I14">
+      <c r="I15" s="2">
         <f t="shared" si="6"/>
         <v>61.106499999999997</v>
       </c>
-      <c r="K14">
+      <c r="K15" s="2">
         <v>0.75</v>
       </c>
-      <c r="M14">
+      <c r="M15" s="2">
         <f t="shared" si="5"/>
         <v>62.028937982152428</v>
       </c>
-      <c r="R14">
+      <c r="R15" s="2">
         <v>0.75</v>
       </c>
-      <c r="T14">
+      <c r="T15" s="2">
         <f t="shared" si="8"/>
         <v>62.028937999999997</v>
       </c>
-      <c r="V14">
+      <c r="V15" s="2">
         <v>62.028937999999997</v>
       </c>
-      <c r="W14">
+      <c r="W15" s="2">
         <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>0.8</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="2">
         <v>5.4984320000000304</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="2">
         <v>0.8</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>65.473211271867697</v>
       </c>
-      <c r="I15">
+      <c r="I16" s="2">
         <f t="shared" si="6"/>
         <v>66.412999999999997</v>
       </c>
-      <c r="K15">
+      <c r="K16" s="2">
         <v>0.8</v>
       </c>
-      <c r="M15">
+      <c r="M16" s="2">
         <f t="shared" si="5"/>
         <v>67.335437982152428</v>
       </c>
-      <c r="R15">
+      <c r="R16" s="2">
         <v>0.8</v>
       </c>
-      <c r="T15">
+      <c r="T16" s="2">
         <f t="shared" si="8"/>
         <v>67.335437999999996</v>
       </c>
-      <c r="V15">
+      <c r="V16" s="2">
         <v>67.335437999999996</v>
       </c>
-      <c r="W15">
+      <c r="W16" s="2">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>0.85</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="2">
         <v>5.19549229999995</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="2">
         <v>0.85</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>69.290835057152037</v>
       </c>
-      <c r="I16">
+      <c r="I17" s="2">
         <f t="shared" si="6"/>
         <v>71.719499999999996</v>
       </c>
-      <c r="K16">
+      <c r="K17" s="2">
         <v>0.85</v>
       </c>
-      <c r="M16">
+      <c r="M17" s="2">
         <f t="shared" si="5"/>
         <v>72.641937982152427</v>
       </c>
-      <c r="R16">
+      <c r="R17" s="2">
         <v>0.85</v>
       </c>
-      <c r="T16">
+      <c r="T17" s="2">
         <f t="shared" si="8"/>
         <v>72.641937999999996</v>
       </c>
-      <c r="V16">
+      <c r="V17" s="2">
         <v>72.641937999999996</v>
       </c>
-      <c r="W16">
+      <c r="W17" s="2">
         <f t="shared" si="7"/>
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>0.9</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="2">
         <v>4.6861747999999999</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="2">
         <v>0.9</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>76.821718216742582</v>
       </c>
-      <c r="I17">
+      <c r="I18" s="2">
         <f t="shared" si="6"/>
         <v>77.025999999999996</v>
       </c>
-      <c r="K17">
+      <c r="K18" s="2">
         <v>0.9</v>
       </c>
-      <c r="M17">
+      <c r="M18" s="2">
         <f t="shared" si="5"/>
         <v>77.948437982152427</v>
       </c>
-      <c r="R17">
+      <c r="R18" s="2">
         <v>0.9</v>
       </c>
-      <c r="T17">
+      <c r="T18" s="2">
         <f t="shared" si="8"/>
         <v>77.948437999999996</v>
       </c>
-      <c r="V17">
+      <c r="V18" s="2">
         <v>77.948437999999996</v>
       </c>
-      <c r="W17">
+      <c r="W18" s="2">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>0.95</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="2">
         <v>4.24106490000002</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="2">
         <v>0.95</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>84.884341194589666</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="2">
         <f t="shared" si="6"/>
         <v>82.332499999999996</v>
       </c>
-      <c r="K18">
+      <c r="K19" s="2">
         <v>0.95</v>
       </c>
-      <c r="M18">
+      <c r="M19" s="2">
         <f t="shared" si="5"/>
         <v>83.254937982152427</v>
       </c>
-      <c r="R18">
+      <c r="R19" s="2">
         <v>0.95</v>
       </c>
-      <c r="T18">
+      <c r="T19" s="2">
         <f t="shared" si="8"/>
         <v>83.254937999999996</v>
       </c>
-      <c r="V18">
+      <c r="V19" s="2">
         <v>83.254937999999996</v>
       </c>
-      <c r="W18">
+      <c r="W19" s="2">
         <f t="shared" si="7"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="2">
         <v>4.0618733999999597</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>88.629054760791803</v>
       </c>
-      <c r="I19">
+      <c r="I20" s="2">
         <f t="shared" si="6"/>
         <v>87.638999999999996</v>
       </c>
-      <c r="K19">
+      <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="M19">
+      <c r="M20" s="2">
         <f t="shared" si="5"/>
         <v>88.561437982152427</v>
       </c>
-      <c r="R19">
+      <c r="R20" s="2">
         <v>1</v>
       </c>
-      <c r="T19">
+      <c r="T20" s="2">
         <f t="shared" si="8"/>
         <v>88.561437999999995</v>
       </c>
-      <c r="V19">
+      <c r="V20" s="2">
         <v>88.561437999999995</v>
       </c>
-      <c r="W19">
+      <c r="W20" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7378,527 +6704,568 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0691902F-1FB5-4441-ADE9-5940D5775698}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="9" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="15" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.1</v>
-      </c>
-      <c r="B1">
-        <v>104.119275899999</v>
-      </c>
-      <c r="D1">
-        <v>0.1</v>
-      </c>
-      <c r="E1">
-        <f>2*PI()/$B1</f>
-        <v>6.0346033458917349E-2</v>
-      </c>
-      <c r="H1">
-        <f>1.4628*$D1*$D1 + 0.5211*$D1</f>
-        <v>6.6738000000000006E-2</v>
-      </c>
-      <c r="N1">
-        <v>0.1</v>
-      </c>
-      <c r="O1">
-        <f>1.4628*$D1*$D1 + 0.5211*$D1-0.003798181</f>
-        <v>6.2939819000000008E-2</v>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.15</v>
-      </c>
-      <c r="B2">
-        <v>57.044825199999899</v>
-      </c>
-      <c r="D2">
-        <v>0.15</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E8" si="0">2*PI()/$B2</f>
-        <v>0.11014470261151045</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H8" si="1">1.4628*$D2*$D2 + 0.5211*$D2</f>
-        <v>0.111078</v>
-      </c>
-      <c r="N2">
-        <v>0.15</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O8" si="2">1.4628*$D2*$D2 + 0.5211*$D2-0.003798181</f>
-        <v>0.107279819</v>
+      <c r="A2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>104.119275899999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <f>2*PI()/$B2</f>
+        <v>6.0346033458917349E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <f>1.4628*$D2*$D2 + 0.5211*$D2</f>
+        <v>6.6738000000000006E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="2">
+        <f>1.4628*$D2*$D2 + 0.5211*$D2-0.003798181</f>
+        <v>6.2939819000000008E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>57.044825199999899</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E9" si="0">2*PI()/$B3</f>
+        <v>0.11014470261151045</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="1">1.4628*$D3*$D3 + 0.5211*$D3</f>
+        <v>0.111078</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O9" si="2">1.4628*$D3*$D3 + 0.5211*$D3-0.003798181</f>
+        <v>0.107279819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>0.2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
         <v>39.4124549</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="2">
         <v>0.2</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0.15942131296113671</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>0.16273200000000002</v>
       </c>
-      <c r="N3">
+      <c r="N4" s="2">
         <v>0.2</v>
       </c>
-      <c r="O3">
+      <c r="O4" s="2">
         <f t="shared" si="2"/>
         <v>0.158933819</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>0.25</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
         <v>27.6905859999999</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="2">
         <v>0.25</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.22690691006610003</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>0.22170000000000001</v>
       </c>
-      <c r="N4">
+      <c r="N5" s="2">
         <v>0.25</v>
       </c>
-      <c r="O4">
+      <c r="O5" s="2">
         <f t="shared" si="2"/>
         <v>0.217901819</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>0.3</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="2">
         <v>21.310463799999901</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="2">
         <v>0.3</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.2948403829286726</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>0.28798199999999996</v>
       </c>
-      <c r="N5">
+      <c r="N6" s="2">
         <v>0.3</v>
       </c>
-      <c r="O5">
+      <c r="O6" s="2">
         <f t="shared" si="2"/>
         <v>0.28418381899999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>0.35</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>17.7321662999999</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="2">
         <v>0.35</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.35433827998667156</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>0.36157799999999995</v>
       </c>
-      <c r="N6">
+      <c r="N7" s="2">
         <v>0.35</v>
       </c>
-      <c r="O6">
+      <c r="O7" s="2">
         <f t="shared" si="2"/>
         <v>0.35777981899999994</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>0.4</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="2">
         <v>14.0142864999999</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="2">
         <v>0.4</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.44834143409153449</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>0.44248800000000005</v>
       </c>
-      <c r="N7">
+      <c r="N8" s="2">
         <v>0.4</v>
       </c>
-      <c r="O7">
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
         <v>0.43868981900000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>0.45</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="2">
         <v>11.9245027999999</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="2">
         <v>0.45</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.52691381876145305</v>
       </c>
-      <c r="F8">
-        <f>2*PI()/$B8</f>
+      <c r="F9" s="2">
+        <f>2*PI()/$B9</f>
         <v>0.52691381876145305</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>0.53071200000000007</v>
       </c>
-      <c r="I8">
-        <f>1.8522*$D8 - 0.3227</f>
+      <c r="I9" s="2">
+        <f>1.8522*$D9 - 0.3227</f>
         <v>0.51079000000000008</v>
       </c>
-      <c r="K8">
-        <f>$E$8-$H$8</f>
+      <c r="K9" s="2">
+        <f>$E$9-$H$9</f>
         <v>-3.798181238547027E-3</v>
       </c>
-      <c r="L8">
-        <f>$F8-$I8</f>
+      <c r="L9" s="2">
+        <f>$F9-$I9</f>
         <v>1.6123818761452968E-2</v>
       </c>
-      <c r="N8">
+      <c r="N9" s="2">
         <v>0.45</v>
       </c>
-      <c r="O8">
+      <c r="O9" s="2">
         <f t="shared" si="2"/>
         <v>0.52691381900000012</v>
       </c>
-      <c r="P8">
-        <f>1.8522*$D8-0.306576181</f>
+      <c r="P9" s="2">
+        <f>1.8522*$D9-0.306576181</f>
         <v>0.52691381900000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.5</v>
-      </c>
-      <c r="B9">
-        <v>10.252030499999901</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F19" si="3">2*PI()/$B9</f>
-        <v>0.61287228000147354</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I19" si="4">1.8522*$D9 - 0.3227</f>
-        <v>0.60340000000000005</v>
-      </c>
-      <c r="N9">
-        <v>0.5</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ref="P9:P19" si="5">1.8522*$D9-0.306576181</f>
-        <v>0.61952381900000009</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10.252030499999901</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10:F20" si="3">2*PI()/$B10</f>
+        <v>0.61287228000147354</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:I20" si="4">1.8522*$D10 - 0.3227</f>
+        <v>0.60340000000000005</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" ref="P10:P20" si="5">1.8522*$D10-0.306576181</f>
+        <v>0.61952381900000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="2">
         <v>8.9132731999999901</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F10">
+      <c r="F11" s="2">
         <f t="shared" si="3"/>
         <v>0.70492457329587888</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="2">
         <f t="shared" si="4"/>
         <v>0.69601000000000024</v>
       </c>
-      <c r="N10">
+      <c r="N11" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P10">
+      <c r="P11" s="2">
         <f t="shared" si="5"/>
         <v>0.71213381900000017</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>0.6</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="2">
         <v>7.7972300000000097</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="2">
         <v>0.6</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="2">
         <f t="shared" si="3"/>
         <v>0.80582274822976596</v>
       </c>
-      <c r="I11">
+      <c r="I12" s="2">
         <f t="shared" si="4"/>
         <v>0.7886200000000001</v>
       </c>
-      <c r="N11">
+      <c r="N12" s="2">
         <v>0.6</v>
       </c>
-      <c r="P11">
+      <c r="P12" s="2">
         <f t="shared" si="5"/>
         <v>0.80474381900000003</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>0.65</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="2">
         <v>7.3107315999999898</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="2">
         <v>0.65</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
         <v>0.85944685853049163</v>
       </c>
-      <c r="I12">
+      <c r="I13" s="2">
         <f t="shared" si="4"/>
         <v>0.88123000000000018</v>
       </c>
-      <c r="N12">
+      <c r="N13" s="2">
         <v>0.65</v>
       </c>
-      <c r="P12">
+      <c r="P13" s="2">
         <f t="shared" si="5"/>
         <v>0.89735381900000011</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>0.7</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="2">
         <v>6.68663150000003</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="2">
         <v>0.7</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="2">
         <f t="shared" si="3"/>
         <v>0.93966376151871955</v>
       </c>
-      <c r="I13">
+      <c r="I14" s="2">
         <f t="shared" si="4"/>
         <v>0.97384000000000004</v>
       </c>
-      <c r="N13">
+      <c r="N14" s="2">
         <v>0.7</v>
       </c>
-      <c r="P13">
+      <c r="P14" s="2">
         <f t="shared" si="5"/>
         <v>0.98996381899999997</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>0.75</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="2">
         <v>5.86695589999999</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="2">
         <v>0.75</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="2">
         <f t="shared" si="3"/>
         <v>1.0709446967514442</v>
       </c>
-      <c r="I14">
+      <c r="I15" s="2">
         <f t="shared" si="4"/>
         <v>1.0664500000000001</v>
       </c>
-      <c r="N14">
+      <c r="N15" s="2">
         <v>0.75</v>
       </c>
-      <c r="P14">
+      <c r="P15" s="2">
         <f t="shared" si="5"/>
         <v>1.082573819</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>0.8</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="2">
         <v>5.4984320000000304</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="2">
         <v>0.8</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="2">
         <f t="shared" si="3"/>
         <v>1.1427231085479554</v>
       </c>
-      <c r="I15">
+      <c r="I16" s="2">
         <f t="shared" si="4"/>
         <v>1.1590600000000002</v>
       </c>
-      <c r="N15">
+      <c r="N16" s="2">
         <v>0.8</v>
       </c>
-      <c r="P15">
+      <c r="P16" s="2">
         <f t="shared" si="5"/>
         <v>1.1751838190000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>0.85</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="2">
         <v>5.19549229999995</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="2">
         <v>0.85</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="2">
         <f t="shared" si="3"/>
         <v>1.2093532132036162</v>
       </c>
-      <c r="I16">
+      <c r="I17" s="2">
         <f t="shared" si="4"/>
         <v>1.2516700000000001</v>
       </c>
-      <c r="N16">
+      <c r="N17" s="2">
         <v>0.85</v>
       </c>
-      <c r="P16">
+      <c r="P17" s="2">
         <f t="shared" si="5"/>
         <v>1.267793819</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>0.9</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="2">
         <v>4.6861747999999999</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="2">
         <v>0.9</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="2">
         <f t="shared" si="3"/>
         <v>1.3407919199214648</v>
       </c>
-      <c r="I17">
+      <c r="I18" s="2">
         <f t="shared" si="4"/>
         <v>1.3442800000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18" s="2">
         <v>0.9</v>
       </c>
-      <c r="P17">
+      <c r="P18" s="2">
         <f t="shared" si="5"/>
         <v>1.3604038190000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>0.95</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="2">
         <v>4.24106490000002</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="2">
         <v>0.95</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="2">
         <f t="shared" si="3"/>
         <v>1.4815112372318464</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="2">
         <f t="shared" si="4"/>
         <v>1.43689</v>
       </c>
-      <c r="N18">
+      <c r="N19" s="2">
         <v>0.95</v>
       </c>
-      <c r="P18">
+      <c r="P19" s="2">
         <f t="shared" si="5"/>
         <v>1.4530138189999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="2">
         <v>4.0618733999999597</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="2">
         <f t="shared" si="3"/>
         <v>1.5468688185061723</v>
       </c>
-      <c r="I19">
+      <c r="I20" s="2">
         <f t="shared" si="4"/>
         <v>1.5295000000000001</v>
       </c>
-      <c r="N19">
+      <c r="N20" s="2">
         <v>1</v>
       </c>
-      <c r="P19">
+      <c r="P20" s="2">
         <f t="shared" si="5"/>
         <v>1.545623819</v>
       </c>
